--- a/Raj Chudasama/2022-12-08/Home2 Suites by Hilton Fort Worth Northlake/arrivalllandscape_letter.xlsx
+++ b/Raj Chudasama/2022-12-08/Home2 Suites by Hilton Fort Worth Northlake/arrivalllandscape_letter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>Guest Name</t>
   </si>
@@ -34,28 +34,25 @@
     <t>Arrival Date</t>
   </si>
   <si>
-    <t>Depart Date</t>
-  </si>
-  <si>
     <t>Room Type</t>
   </si>
   <si>
-    <t>Essenburg/Ryan</t>
-  </si>
-  <si>
-    <t>Gaskins/William</t>
-  </si>
-  <si>
-    <t>HEISHMAN/RYAN</t>
-  </si>
-  <si>
-    <t>Lingefelt/Kristofer</t>
-  </si>
-  <si>
-    <t>MARIKIS/SCOTT</t>
-  </si>
-  <si>
-    <t>MONTENEGRO/MARLON</t>
+    <t xml:space="preserve">Essenburg/Ryan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaskins/William </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEISHMAN/RYAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lingefelt/Kristofer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIKIS/SCOTT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTENEGRO/MARLON </t>
   </si>
   <si>
     <t>PARRISH/MARK</t>
@@ -64,10 +61,10 @@
     <t>Pritchard/Deneille</t>
   </si>
   <si>
-    <t>REED/CODY</t>
-  </si>
-  <si>
-    <t>Robinson/Glen</t>
+    <t xml:space="preserve">REED/CODY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR Robinson/Glen </t>
   </si>
   <si>
     <t>Robinson/Tammy</t>
@@ -76,43 +73,40 @@
     <t>Roland/Giberto</t>
   </si>
   <si>
-    <t>STORMS/HOLLY</t>
-  </si>
-  <si>
-    <t>TRAUTMAN/DENNIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ALLEN DISTRIBUTION  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  EMPIRE AIRLINES  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  OMNI AIR  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  MOVING  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  GetARoom.com Adv Purch  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  BOOKING COM  </t>
+    <t xml:space="preserve">MRS STORMS/HOLLY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAUTMAN/DENNIS </t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALLEN DISTRIBUTION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPIRE AIRLINES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMNI AIR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetARoom.com Adv Purch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOKING COM </t>
   </si>
   <si>
     <t>$106.00</t>
@@ -136,9 +130,6 @@
     <t>$115.98</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>$116.00</t>
   </si>
   <si>
@@ -166,7 +157,7 @@
     <t>S-2G2</t>
   </si>
   <si>
-    <t>12/8/2022</t>
+    <t>12/22/2022</t>
   </si>
   <si>
     <t>NKJ</t>
@@ -527,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,315 +546,297 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
       <c r="F15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
